--- a/Images/glr1/worm21/marker_names_consensus.xlsx
+++ b/Images/glr1/worm21/marker_names_consensus.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (GaTech)\Whole-brain codes\CRF_Cell_ID-master\Images\glr1\worm21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunjee/Dropbox (GaTech)/Whole-brain codes/CRF_ID 2.0/Images/glr1/worm21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FE5F99-3123-4018-960E-B82E960AD439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CD2CB7-E734-F444-B0C7-CA95B70A6D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18680" yWindow="1640" windowWidth="17720" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Marker</t>
   </si>
@@ -94,9 +98,6 @@
     <t>AVER</t>
   </si>
   <si>
-    <t>URYDR</t>
-  </si>
-  <si>
     <t>AVBR</t>
   </si>
   <si>
@@ -109,114 +110,16 @@
     <t>RMDDR</t>
   </si>
   <si>
-    <t>155,95,62,5,1,URYDR,</t>
-  </si>
-  <si>
-    <t>174,112,51,5,1,RMER,</t>
-  </si>
-  <si>
-    <t>187,133,42,5,1,RMDVR,</t>
-  </si>
-  <si>
-    <t>199,142,39,5,1,AVAR,</t>
-  </si>
-  <si>
-    <t>217,153,46,5,1,RMDR,</t>
-  </si>
-  <si>
-    <t>215,160,41,5,1,AVER,</t>
-  </si>
-  <si>
-    <t>180,153,48,5,1,SMDVR,</t>
-  </si>
-  <si>
-    <t>248,173,64,5,1,RMDDR,</t>
-  </si>
-  <si>
-    <t>269,195,64,5,1,SMDDR,</t>
-  </si>
-  <si>
-    <t>230,215,40,5,1,RIMR,</t>
-  </si>
-  <si>
-    <t>215,216,34,5,1,AVDR,</t>
-  </si>
-  <si>
-    <t>200,211,33,5,1,AVBR,</t>
-  </si>
-  <si>
-    <t>372,403,78,5,1,notannotated,</t>
-  </si>
-  <si>
-    <t>356,360,83,5,1,notannotated,</t>
-  </si>
-  <si>
-    <t>250,209,111,5,1,RIML,</t>
-  </si>
-  <si>
-    <t>227,201,141,5,1,AVDL,</t>
-  </si>
-  <si>
-    <t>223,181,142,5,1,AVBL,</t>
-  </si>
-  <si>
-    <t>185,164,123,5,1,M1,</t>
-  </si>
-  <si>
-    <t>191,104,114,5,1,RMEL,</t>
-  </si>
-  <si>
-    <t>203,118,121,5,1,RMDVL,</t>
-  </si>
-  <si>
-    <t>215,127,122,5,1,AVAL,</t>
-  </si>
-  <si>
-    <t>219,140,118,5,1,AVEL,</t>
-  </si>
-  <si>
-    <t>228,146,117,5,1,RMDL,</t>
-  </si>
-  <si>
-    <t>196,136,126,5,1,SMDVL,</t>
-  </si>
-  <si>
-    <t>247,162,98,5,1,RMDDL,</t>
-  </si>
-  <si>
-    <t>276,187,95,5,1,SMDDL,</t>
-  </si>
-  <si>
     <t>AVEL</t>
   </si>
   <si>
-    <t>372,403,78,5,1,RIGL,</t>
-  </si>
-  <si>
-    <t>356,360,83,5,1,RIGR,</t>
-  </si>
-  <si>
-    <t>185,164,123,5,1,AVJL,</t>
-  </si>
-  <si>
     <t>RIGL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RIGR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVJL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMDL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URYDL</t>
   </si>
 </sst>
 </file>
@@ -227,13 +130,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -263,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,15 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="C1" sqref="C1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,267 +460,159 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A27" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -825,140 +620,77 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
